--- a/FileB.xlsx
+++ b/FileB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32260" windowHeight="17240"/>
+    <workbookView windowWidth="32300" windowHeight="17240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Query</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>什么玩意儿啊，这是</t>
+  </si>
+  <si>
+    <t>工作流</t>
   </si>
 </sst>
 </file>
@@ -1183,13 +1186,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="29.4807692307692" customWidth="1"/>
   </cols>
@@ -1214,6 +1217,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
